--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -121,22 +121,22 @@
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>gt</t>
@@ -1321,25 +1321,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.7665198237885462</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L25">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1347,25 +1347,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="N26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1425,25 +1425,25 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="L29">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1451,25 +1451,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.6515151515151515</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="N30">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="10:17">
